--- a/Data/Educacion_01.xlsx
+++ b/Data/Educacion_01.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Tabulado" sheetId="1" r:id="Rac042305e5504ea5"/>
+    <sheet name="Tabulado" sheetId="1" r:id="Rac11c8cc46df4686"/>
   </sheets>
 </workbook>
 </file>
